--- a/Nhóm-10-Bảng-kế-hoạch.xlsx
+++ b/Nhóm-10-Bảng-kế-hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\CAY-GIA-PHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F59E71-9A0B-4047-AD78-DC88D8CED423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F267D49-BFE0-42CC-9483-1B864ABB724A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="184">
   <si>
     <t>DOB</t>
   </si>
@@ -1545,6 +1545,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1553,21 +1568,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2891,7 +2891,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2907,18 +2907,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="21" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:26" s="21" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -2965,7 +2965,7 @@
       <c r="D3" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="94" t="s">
         <v>151</v>
       </c>
       <c r="F3" s="52"/>
@@ -2975,10 +2975,10 @@
       <c r="H3" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J3" s="96"/>
+      <c r="J3" s="93"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3020,7 +3020,7 @@
       <c r="I4" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="91" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       <c r="I6" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="90">
         <v>43200</v>
       </c>
       <c r="K6" s="2"/>
@@ -3137,7 +3137,9 @@
       <c r="H7" s="83">
         <v>43169</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="52" t="s">
+        <v>178</v>
+      </c>
       <c r="J7" s="75"/>
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
